--- a/data/trans_orig/P5707-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P5707-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>307568</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>283940</v>
+        <v>285233</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>330606</v>
+        <v>332026</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5265299033557617</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4860820536680455</v>
+        <v>0.4882956074045717</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5659699510582821</v>
+        <v>0.5683996083319983</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>515</v>
@@ -765,19 +765,19 @@
         <v>531280</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>501454</v>
+        <v>498335</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>560568</v>
+        <v>561308</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5766299741055743</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5442581810563381</v>
+        <v>0.5408733357505467</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6084186538799946</v>
+        <v>0.6092211236429006</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>811</v>
@@ -786,19 +786,19 @@
         <v>838847</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>801644</v>
+        <v>799395</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>878342</v>
+        <v>878106</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5571908291158685</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5324791797148479</v>
+        <v>0.5309850959070874</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5834247298088779</v>
+        <v>0.5832679218059075</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>148990</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>128524</v>
+        <v>129806</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>171322</v>
+        <v>170015</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2550584372959271</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2200223409839518</v>
+        <v>0.2222176683678337</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2932886986803624</v>
+        <v>0.291052075785834</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>168</v>
@@ -836,19 +836,19 @@
         <v>176496</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>152941</v>
+        <v>153867</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>198846</v>
+        <v>202668</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1915620373040969</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1659958126370136</v>
+        <v>0.1670008391048423</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2158197517855418</v>
+        <v>0.2199680255848647</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>317</v>
@@ -857,19 +857,19 @@
         <v>325486</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>294167</v>
+        <v>293489</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>356456</v>
+        <v>359063</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2161990429468515</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1953955853877872</v>
+        <v>0.1949450413376344</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2367699589970585</v>
+        <v>0.2385018593741454</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>97161</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>78111</v>
+        <v>80865</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>115659</v>
+        <v>117237</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1663307301783845</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1337195302404704</v>
+        <v>0.1384334541470416</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1979992092950985</v>
+        <v>0.2006992785358054</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>135</v>
@@ -907,19 +907,19 @@
         <v>143480</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>122650</v>
+        <v>123301</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>166662</v>
+        <v>167801</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1557273775767268</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1331199577529324</v>
+        <v>0.133825600143524</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1808878768911465</v>
+        <v>0.1821245962289005</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>233</v>
@@ -928,19 +928,19 @@
         <v>240640</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>211313</v>
+        <v>214000</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>268953</v>
+        <v>272580</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1598415455911776</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1403614122684109</v>
+        <v>0.1421460989071532</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1786480037691605</v>
+        <v>0.1810568891068269</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>23860</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15613</v>
+        <v>16244</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35269</v>
+        <v>35360</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04084557201820443</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02672888541372129</v>
+        <v>0.02780882443162367</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0603783433686323</v>
+        <v>0.06053395716903017</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -978,19 +978,19 @@
         <v>61147</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45718</v>
+        <v>46388</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78309</v>
+        <v>78467</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06636636514665846</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04962071533879139</v>
+        <v>0.05034786730826591</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08499321422316643</v>
+        <v>0.08516454455120666</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>82</v>
@@ -999,19 +999,19 @@
         <v>85006</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>67615</v>
+        <v>68944</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>105558</v>
+        <v>105507</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05646413565972387</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04491212924417523</v>
+        <v>0.04579484006600303</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07011550192135735</v>
+        <v>0.07008130479227534</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>6563</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2738</v>
+        <v>2789</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12427</v>
+        <v>13346</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0112353571517223</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004686623568521371</v>
+        <v>0.004773686445906555</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02127410294550377</v>
+        <v>0.02284794024601557</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -1049,19 +1049,19 @@
         <v>8950</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4295</v>
+        <v>3469</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18738</v>
+        <v>16880</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.009714245866943439</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004661995870443343</v>
+        <v>0.00376543144811975</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02033791613228892</v>
+        <v>0.0183210248000212</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -1070,19 +1070,19 @@
         <v>15513</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9174</v>
+        <v>8307</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25019</v>
+        <v>24065</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0103044466863785</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006093866858207902</v>
+        <v>0.005517796876210238</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01661835577243729</v>
+        <v>0.01598447412896994</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>593853</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>560493</v>
+        <v>561610</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>628338</v>
+        <v>626568</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5509380748887667</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5199893569592258</v>
+        <v>0.5210252788979916</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.582930721797884</v>
+        <v>0.5812893050495512</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>563</v>
@@ -1195,19 +1195,19 @@
         <v>578209</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>543383</v>
+        <v>542881</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>608073</v>
+        <v>609491</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5467503232180501</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5138185150031443</v>
+        <v>0.5133444164992244</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5749890797163474</v>
+        <v>0.5763305885839819</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1139</v>
@@ -1216,19 +1216,19 @@
         <v>1172062</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1126177</v>
+        <v>1126305</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1219871</v>
+        <v>1221439</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5488641589478984</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.527376451978723</v>
+        <v>0.5274363901969061</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5712527934618749</v>
+        <v>0.5719866515701781</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>334116</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>304005</v>
+        <v>304076</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>363325</v>
+        <v>362835</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3099714196300261</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2820363778139743</v>
+        <v>0.282101775489509</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3370691338823228</v>
+        <v>0.3366146920861926</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>289</v>
@@ -1266,19 +1266,19 @@
         <v>296149</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>266199</v>
+        <v>268917</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>325665</v>
+        <v>327947</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.280036279934505</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2517158155874125</v>
+        <v>0.2542854778246959</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3079467757183231</v>
+        <v>0.3101039784826473</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>618</v>
@@ -1287,19 +1287,19 @@
         <v>630265</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>592087</v>
+        <v>584130</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>673109</v>
+        <v>668694</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2951465283068889</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2772680188743825</v>
+        <v>0.2735417305556888</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3152099223895038</v>
+        <v>0.3131423575974674</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>117856</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>99430</v>
+        <v>99087</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>140184</v>
+        <v>138403</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1093394430968124</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09224458640157925</v>
+        <v>0.09192631386275178</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.130053318580577</v>
+        <v>0.1284009027075714</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>137</v>
@@ -1337,19 +1337,19 @@
         <v>142248</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>122610</v>
+        <v>122074</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>167995</v>
+        <v>165930</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1345090733696145</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1159386919561365</v>
+        <v>0.1154324094789111</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1588550956778924</v>
+        <v>0.1569020722995446</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>258</v>
@@ -1358,19 +1358,19 @@
         <v>260105</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>230970</v>
+        <v>232405</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>291590</v>
+        <v>292711</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1218042933441511</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1081606406979084</v>
+        <v>0.1088328973311219</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1365484549322494</v>
+        <v>0.1370736351650297</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>29492</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19698</v>
+        <v>19900</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42499</v>
+        <v>42016</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02736109913200825</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01827468869603559</v>
+        <v>0.01846150561248861</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0394276276497299</v>
+        <v>0.03898005578018122</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -1408,19 +1408,19 @@
         <v>37906</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27713</v>
+        <v>27910</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51506</v>
+        <v>52928</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03584354700737195</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02620493823884314</v>
+        <v>0.02639183725373791</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04870373033891532</v>
+        <v>0.05004815515099931</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -1429,19 +1429,19 @@
         <v>67398</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>52094</v>
+        <v>51951</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83582</v>
+        <v>85481</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03156189355573556</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02439512652687903</v>
+        <v>0.02432804097074922</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03914043013864644</v>
+        <v>0.04002978951748395</v>
       </c>
     </row>
     <row r="14">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9139</v>
+        <v>10114</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002389963252386581</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.00847874813564675</v>
+        <v>0.009383475033724505</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1479,19 +1479,19 @@
         <v>3025</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7955</v>
+        <v>8955</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.00286077647045851</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0009167780575348985</v>
+        <v>0.0009209579130172105</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.007522612195589178</v>
+        <v>0.008467310285737495</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -1500,19 +1500,19 @@
         <v>5602</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1950</v>
+        <v>1955</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12659</v>
+        <v>12898</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002623125845326048</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0009133622092292688</v>
+        <v>0.0009154786506770214</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.005927984034383866</v>
+        <v>0.006039799332447552</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>664329</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>630548</v>
+        <v>629651</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>696685</v>
+        <v>695653</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.592307834370804</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5621895888360581</v>
+        <v>0.5613893081579683</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.62115596598942</v>
+        <v>0.6202363970146028</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>516</v>
@@ -1625,19 +1625,19 @@
         <v>519848</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>484883</v>
+        <v>487612</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>550693</v>
+        <v>553400</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5230177888923726</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4878392680540093</v>
+        <v>0.490585267711978</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5540507413533192</v>
+        <v>0.5567736088582079</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1165</v>
@@ -1646,19 +1646,19 @@
         <v>1184177</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1139139</v>
+        <v>1138437</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1225434</v>
+        <v>1232380</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5597533472729388</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.538463867918808</v>
+        <v>0.5381319827667873</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5792553250775816</v>
+        <v>0.5825382991726319</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>307785</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>280589</v>
+        <v>277873</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>336400</v>
+        <v>339521</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2744171583229316</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2501697636085805</v>
+        <v>0.2477481583848027</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2999300593348104</v>
+        <v>0.3027124995290054</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>325</v>
@@ -1696,19 +1696,19 @@
         <v>325812</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>297071</v>
+        <v>295948</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>357577</v>
+        <v>355071</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3277982156599546</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2988818902172437</v>
+        <v>0.2977522957556064</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3597567900226351</v>
+        <v>0.3572359005335901</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>631</v>
@@ -1717,19 +1717,19 @@
         <v>633596</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>590146</v>
+        <v>593619</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>678360</v>
+        <v>677951</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2994971381432575</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2789582802075826</v>
+        <v>0.2805999206756389</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3206565385172493</v>
+        <v>0.3204632519089636</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>118898</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>100217</v>
+        <v>97284</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>140784</v>
+        <v>137373</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.10600781495837</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08935208667072604</v>
+        <v>0.08673734284887505</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1255211000419187</v>
+        <v>0.1224804543966442</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>117</v>
@@ -1767,19 +1767,19 @@
         <v>120991</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>100993</v>
+        <v>102010</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>142421</v>
+        <v>144942</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1217285787820496</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1016085158717883</v>
+        <v>0.1026322308833061</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1432892319183261</v>
+        <v>0.1458256115787059</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>236</v>
@@ -1788,19 +1788,19 @@
         <v>239889</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>212805</v>
+        <v>210835</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>269221</v>
+        <v>269966</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1133938889540332</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1005916842369489</v>
+        <v>0.09966020016293321</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1272591728880137</v>
+        <v>0.1276111630517442</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>24128</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15182</v>
+        <v>15751</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35925</v>
+        <v>36353</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02151183176191659</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01353645630072835</v>
+        <v>0.01404339393763851</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03203069253730316</v>
+        <v>0.03241189544265668</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -1838,19 +1838,19 @@
         <v>26313</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17001</v>
+        <v>16703</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38645</v>
+        <v>39237</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0264733552073219</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01710421034438316</v>
+        <v>0.01680526994003155</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03888056136941078</v>
+        <v>0.03947647653244596</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -1859,19 +1859,19 @@
         <v>50440</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>37427</v>
+        <v>37257</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>67515</v>
+        <v>65551</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02384290038618933</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01769161538699446</v>
+        <v>0.01761129084991917</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03191399438876744</v>
+        <v>0.03098533661467927</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>6455</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2745</v>
+        <v>2737</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16212</v>
+        <v>15488</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00575536058597775</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002447454513047369</v>
+        <v>0.002440645875218823</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01445424683577808</v>
+        <v>0.01380916785566421</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4902</v>
+        <v>4925</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0009820614583012763</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.004931442541917483</v>
+        <v>0.00495521867531311</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1930,19 +1930,19 @@
         <v>7431</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17612</v>
+        <v>15775</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003512725243581192</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00132909034730301</v>
+        <v>0.001327667254998295</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008325006455167719</v>
+        <v>0.00745679431197268</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>271390</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>248259</v>
+        <v>250157</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>291694</v>
+        <v>291825</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6068647867209254</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5551419893029906</v>
+        <v>0.559385329157458</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6522665078825775</v>
+        <v>0.6525598229806053</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>215</v>
@@ -2055,19 +2055,19 @@
         <v>212965</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>196703</v>
+        <v>195451</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>230999</v>
+        <v>231408</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6242411984081601</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5765740946476243</v>
+        <v>0.5729059239943617</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6771026044774496</v>
+        <v>0.6783019094390977</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>480</v>
@@ -2076,19 +2076,19 @@
         <v>484355</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>456564</v>
+        <v>456408</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>511511</v>
+        <v>512162</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6143843475803361</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5791334585886887</v>
+        <v>0.5789355412648477</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.648830693387891</v>
+        <v>0.6496560405782811</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>115778</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>98947</v>
+        <v>98916</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>137650</v>
+        <v>134050</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2588961800271141</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2212592759792029</v>
+        <v>0.2211901990641818</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3078052212498606</v>
+        <v>0.2997538452592548</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>89</v>
@@ -2126,19 +2126,19 @@
         <v>90110</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>74016</v>
+        <v>73937</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>106026</v>
+        <v>106038</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2641308026383822</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2169552541323712</v>
+        <v>0.2167230692938892</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3107835265149649</v>
+        <v>0.310818412885383</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>204</v>
@@ -2147,19 +2147,19 @@
         <v>205889</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>181103</v>
+        <v>179385</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>231968</v>
+        <v>230828</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2611614384711458</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2297221386927988</v>
+        <v>0.2275424597775373</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2942422276699997</v>
+        <v>0.2927956758194519</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>49270</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>36246</v>
+        <v>36942</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>63553</v>
+        <v>64226</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1101748337780813</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08105193954642829</v>
+        <v>0.08260844764687487</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1421123740613007</v>
+        <v>0.1436187477773579</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>30</v>
@@ -2197,19 +2197,19 @@
         <v>31433</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>21371</v>
+        <v>21872</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>43811</v>
+        <v>42764</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09213489452074285</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06264206152707098</v>
+        <v>0.06411199676187324</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1284174861394988</v>
+        <v>0.1253503027923279</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>76</v>
@@ -2218,19 +2218,19 @@
         <v>80703</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>63985</v>
+        <v>62966</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>98239</v>
+        <v>100404</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.102368134467125</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08116189789176047</v>
+        <v>0.07986964082099073</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.124612132487085</v>
+        <v>0.1273589270742262</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>10762</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5310</v>
+        <v>5500</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20535</v>
+        <v>21108</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0240641994738792</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01187390264641697</v>
+        <v>0.01229855232590964</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04591908073222182</v>
+        <v>0.04720055528803515</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -2268,19 +2268,19 @@
         <v>6650</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13865</v>
+        <v>15052</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01949310443271483</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006651351119672783</v>
+        <v>0.006788042284620703</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0406411261019968</v>
+        <v>0.04411978585598438</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -2289,19 +2289,19 @@
         <v>17412</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10001</v>
+        <v>9010</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>28879</v>
+        <v>27637</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02208607948139323</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01268546735343038</v>
+        <v>0.01142832720008548</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03663205869001745</v>
+        <v>0.03505678225703422</v>
       </c>
     </row>
     <row r="26">
@@ -2440,19 +2440,19 @@
         <v>1837139</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1781996</v>
+        <v>1773927</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1892819</v>
+        <v>1888416</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5686278582580619</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5515599645193587</v>
+        <v>0.5490624597208302</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5858616585433049</v>
+        <v>0.5844987858668046</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1809</v>
@@ -2461,19 +2461,19 @@
         <v>1842302</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1785523</v>
+        <v>1785184</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1900342</v>
+        <v>1896263</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5559168116215388</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.538783478677299</v>
+        <v>0.5386814536182506</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5734305258812894</v>
+        <v>0.5721994011762663</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3595</v>
@@ -2482,19 +2482,19 @@
         <v>3679442</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3593435</v>
+        <v>3602194</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3756163</v>
+        <v>3764976</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5621915806656657</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5490503711644832</v>
+        <v>0.5503886738095901</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.573913984587895</v>
+        <v>0.5752605786623184</v>
       </c>
     </row>
     <row r="29">
@@ -2511,19 +2511,19 @@
         <v>906669</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>855863</v>
+        <v>855203</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>955704</v>
+        <v>960023</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2806305831546029</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2649049283437966</v>
+        <v>0.2647008284698796</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2958078080265291</v>
+        <v>0.2971446070106053</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>871</v>
@@ -2532,19 +2532,19 @@
         <v>888567</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>843593</v>
+        <v>838606</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>944042</v>
+        <v>938138</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2681262174103447</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2545553024938585</v>
+        <v>0.2530504172833642</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.284865640835204</v>
+        <v>0.2830841060865602</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1770</v>
@@ -2553,19 +2553,19 @@
         <v>1795237</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1723566</v>
+        <v>1721275</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1869417</v>
+        <v>1865262</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2742989590682239</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2633482338174588</v>
+        <v>0.2629980948739825</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2856330813663834</v>
+        <v>0.2849982709528255</v>
       </c>
     </row>
     <row r="30">
@@ -2582,19 +2582,19 @@
         <v>383185</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>349792</v>
+        <v>348707</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>420043</v>
+        <v>421824</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1186026441816243</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1082668692337953</v>
+        <v>0.1079310844145366</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1300108751000081</v>
+        <v>0.1305622285721166</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>419</v>
@@ -2603,19 +2603,19 @@
         <v>438152</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>400675</v>
+        <v>401715</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>477713</v>
+        <v>480870</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.132212811615558</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1209041992008224</v>
+        <v>0.1212178927383334</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.14415051982663</v>
+        <v>0.1451030025623632</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>803</v>
@@ -2624,19 +2624,19 @@
         <v>821337</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>767514</v>
+        <v>768188</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>875292</v>
+        <v>873390</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1254941943575231</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1172705625719895</v>
+        <v>0.1173735309673662</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.133738183282054</v>
+        <v>0.1334475680921143</v>
       </c>
     </row>
     <row r="31">
@@ -2653,19 +2653,19 @@
         <v>88241</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>71178</v>
+        <v>71457</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>109066</v>
+        <v>108913</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02731218324929997</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02203077917119314</v>
+        <v>0.022117336028337</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03375799714229654</v>
+        <v>0.0337104617695752</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>122</v>
@@ -2674,19 +2674,19 @@
         <v>132016</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>110097</v>
+        <v>110435</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>156483</v>
+        <v>158192</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03983595669390955</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03322179199740986</v>
+        <v>0.03332378444290019</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0472188063926202</v>
+        <v>0.04773453009022915</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>207</v>
@@ -2695,19 +2695,19 @@
         <v>220257</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>190928</v>
+        <v>190371</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>249588</v>
+        <v>250592</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03365363448449396</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02917234764049752</v>
+        <v>0.02908722481051036</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03813519992699557</v>
+        <v>0.03828868456241268</v>
       </c>
     </row>
     <row r="32">
@@ -2724,19 +2724,19 @@
         <v>15594</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9789</v>
+        <v>9236</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>26068</v>
+        <v>27353</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.004826731156410843</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.00302995687653264</v>
+        <v>0.002858690403986315</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.008068669989369379</v>
+        <v>0.008466175886989261</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>12</v>
@@ -2745,19 +2745,19 @@
         <v>12952</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6698</v>
+        <v>6631</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>22086</v>
+        <v>22754</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.003908202658648863</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00202102183815123</v>
+        <v>0.002000812648039151</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.00666460143857382</v>
+        <v>0.006866099534364547</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>26</v>
@@ -2766,19 +2766,19 @@
         <v>28546</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>19077</v>
+        <v>18725</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>41915</v>
+        <v>42327</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.00436163142409329</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.00291480783321587</v>
+        <v>0.002861073880339273</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.006404373547817674</v>
+        <v>0.00646728565045044</v>
       </c>
     </row>
     <row r="33">
@@ -3110,19 +3110,19 @@
         <v>599554</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>569557</v>
+        <v>566225</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>634402</v>
+        <v>632260</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5771115885123115</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5482372474793917</v>
+        <v>0.5450306004240721</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6106550672345925</v>
+        <v>0.6085932580662817</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>554</v>
@@ -3131,19 +3131,19 @@
         <v>600103</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>564380</v>
+        <v>564232</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>632663</v>
+        <v>633205</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5363670887150831</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5044382464323438</v>
+        <v>0.5043060628638792</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5654687720980345</v>
+        <v>0.5659528985360126</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1118</v>
@@ -3152,19 +3152,19 @@
         <v>1199656</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1156253</v>
+        <v>1154604</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1243731</v>
+        <v>1248578</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5559845588744106</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5358691328521894</v>
+        <v>0.5351049834941812</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5764110728240815</v>
+        <v>0.5786576035783317</v>
       </c>
     </row>
     <row r="5">
@@ -3181,19 +3181,19 @@
         <v>258645</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>230186</v>
+        <v>230234</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>286750</v>
+        <v>289589</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2489632955284456</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2215699313289748</v>
+        <v>0.2216158687225905</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2760165547455403</v>
+        <v>0.2787496657622442</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>308</v>
@@ -3202,19 +3202,19 @@
         <v>337168</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>307195</v>
+        <v>303678</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>371698</v>
+        <v>369978</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3013577002830362</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2745685633746864</v>
+        <v>0.271425288003418</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3322208849043392</v>
+        <v>0.3306829781900362</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>549</v>
@@ -3223,19 +3223,19 @@
         <v>595812</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>557907</v>
+        <v>552822</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>638276</v>
+        <v>638575</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.276131088669097</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2585640163728353</v>
+        <v>0.256207237590298</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2958109097044481</v>
+        <v>0.2959494669059768</v>
       </c>
     </row>
     <row r="6">
@@ -3252,19 +3252,19 @@
         <v>133598</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>111379</v>
+        <v>112964</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>156200</v>
+        <v>156433</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1285968059509179</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1072096021731362</v>
+        <v>0.1087351690340202</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1503530063643387</v>
+        <v>0.1505773454817648</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>128</v>
@@ -3273,19 +3273,19 @@
         <v>135306</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>114114</v>
+        <v>114102</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>159418</v>
+        <v>157305</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1209351460856832</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1019944594264131</v>
+        <v>0.1019837656522401</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1424866229065463</v>
+        <v>0.1405983398667972</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>254</v>
@@ -3294,19 +3294,19 @@
         <v>268903</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>237270</v>
+        <v>236942</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>298380</v>
+        <v>298364</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1246240460482588</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1099635074193752</v>
+        <v>0.1098116757285992</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1382850462799593</v>
+        <v>0.1382775348111123</v>
       </c>
     </row>
     <row r="7">
@@ -3323,19 +3323,19 @@
         <v>34813</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23984</v>
+        <v>24539</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47224</v>
+        <v>48761</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03351012884873687</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02308634415343594</v>
+        <v>0.02362077653654067</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04545645013589977</v>
+        <v>0.04693617177713195</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -3344,19 +3344,19 @@
         <v>26660</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17614</v>
+        <v>17628</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39556</v>
+        <v>40379</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02382847734127195</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01574337081629493</v>
+        <v>0.01575606140495736</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03535525577947234</v>
+        <v>0.03609079897520533</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -3365,19 +3365,19 @@
         <v>61473</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46791</v>
+        <v>45532</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80897</v>
+        <v>77922</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02848995338063716</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02168548758237266</v>
+        <v>0.02110178936841656</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03749178334388597</v>
+        <v>0.03611335207742068</v>
       </c>
     </row>
     <row r="8">
@@ -3394,19 +3394,19 @@
         <v>12278</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6137</v>
+        <v>6184</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22961</v>
+        <v>21815</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0118181811595882</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005907071826219775</v>
+        <v>0.005952117527372584</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02210168115393539</v>
+        <v>0.02099868591641468</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -3415,19 +3415,19 @@
         <v>19592</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11689</v>
+        <v>11886</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29680</v>
+        <v>31311</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01751158757492554</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01044758160106299</v>
+        <v>0.01062383944657528</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0265278196354614</v>
+        <v>0.02798584314730114</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>27</v>
@@ -3436,19 +3436,19 @@
         <v>31870</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20978</v>
+        <v>21532</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>48080</v>
+        <v>46587</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0147703530275965</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009722168622650516</v>
+        <v>0.009978872937347895</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02228271606842514</v>
+        <v>0.02159096156171302</v>
       </c>
     </row>
     <row r="9">
@@ -3540,19 +3540,19 @@
         <v>603169</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>571316</v>
+        <v>571303</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>634777</v>
+        <v>634320</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6179432368656187</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5853097396940463</v>
+        <v>0.5852970082229016</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6503258904247021</v>
+        <v>0.6498573341081476</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>579</v>
@@ -3561,19 +3561,19 @@
         <v>620357</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>586715</v>
+        <v>585838</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>654894</v>
+        <v>652160</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5674784555385626</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5367035742773353</v>
+        <v>0.5359013859099676</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5990717920708866</v>
+        <v>0.5965706268523584</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1156</v>
@@ -3582,19 +3582,19 @@
         <v>1223526</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1178129</v>
+        <v>1176877</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1269649</v>
+        <v>1269881</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5912830531960557</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.569344465754936</v>
+        <v>0.5687391710390086</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6135724229493827</v>
+        <v>0.6136844142692107</v>
       </c>
     </row>
     <row r="11">
@@ -3611,19 +3611,19 @@
         <v>259532</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>233701</v>
+        <v>233791</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>287571</v>
+        <v>291279</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2658892103084037</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2394254389576864</v>
+        <v>0.2395173736688531</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2946149733285668</v>
+        <v>0.2984138358941922</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>305</v>
@@ -3632,19 +3632,19 @@
         <v>323374</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>292828</v>
+        <v>292613</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>356511</v>
+        <v>353588</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2958101561251193</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2678679159955674</v>
+        <v>0.2676709726371604</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3261219019616975</v>
+        <v>0.3234484993583843</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>548</v>
@@ -3653,19 +3653,19 @@
         <v>582906</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>542723</v>
+        <v>543115</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>624014</v>
+        <v>623972</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2816962323555398</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.262276948311704</v>
+        <v>0.2624665188988308</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.301562190103344</v>
+        <v>0.3015416949979809</v>
       </c>
     </row>
     <row r="12">
@@ -3682,19 +3682,19 @@
         <v>90554</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>73635</v>
+        <v>72940</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>114820</v>
+        <v>111692</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09277211391324873</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07543904217631203</v>
+        <v>0.07472618506635841</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1176326541600371</v>
+        <v>0.1144276750384859</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>97</v>
@@ -3703,19 +3703,19 @@
         <v>107538</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>87510</v>
+        <v>85999</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>128390</v>
+        <v>128497</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09837122168326692</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08005055660880696</v>
+        <v>0.07866857315833706</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1174464489009673</v>
+        <v>0.117544265386683</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>177</v>
@@ -3724,19 +3724,19 @@
         <v>198092</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>170326</v>
+        <v>172599</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>225979</v>
+        <v>231344</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09573008257196421</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08231176147818246</v>
+        <v>0.08341060618722991</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1092068526600201</v>
+        <v>0.1117994191219491</v>
       </c>
     </row>
     <row r="13">
@@ -3753,19 +3753,19 @@
         <v>20893</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12735</v>
+        <v>13251</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30486</v>
+        <v>30957</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02140516944699764</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01304650085539997</v>
+        <v>0.01357531937292627</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03123277267678919</v>
+        <v>0.03171541819344038</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -3774,19 +3774,19 @@
         <v>34008</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23821</v>
+        <v>23332</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48022</v>
+        <v>48145</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03110914459227971</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02179096641230892</v>
+        <v>0.02134302743283217</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04392823304883278</v>
+        <v>0.04404158226097109</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>52</v>
@@ -3795,19 +3795,19 @@
         <v>54901</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41778</v>
+        <v>41141</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>70996</v>
+        <v>71048</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02653171023237086</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02018965354173981</v>
+        <v>0.01988205341006761</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03430961329943424</v>
+        <v>0.03433478901598917</v>
       </c>
     </row>
     <row r="14">
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5946</v>
+        <v>6774</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00199026946573129</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.006091516949010851</v>
+        <v>0.006940094924589069</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -3845,19 +3845,19 @@
         <v>7905</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3068</v>
+        <v>3042</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16828</v>
+        <v>15804</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007231022060771548</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0028067327203373</v>
+        <v>0.002782260100372451</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01539319150064234</v>
+        <v>0.01445715007255149</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -3866,19 +3866,19 @@
         <v>9848</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4981</v>
+        <v>4843</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18907</v>
+        <v>19035</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004758921644069432</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002407130521853265</v>
+        <v>0.002340624676931666</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009137208642667894</v>
+        <v>0.009198662893043153</v>
       </c>
     </row>
     <row r="15">
@@ -3970,19 +3970,19 @@
         <v>529469</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>500410</v>
+        <v>497952</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>564048</v>
+        <v>559453</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5981927013344757</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.565361254879119</v>
+        <v>0.5625846839533332</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6372591770640129</v>
+        <v>0.6320676117284195</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>502</v>
@@ -3991,19 +3991,19 @@
         <v>532931</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>506140</v>
+        <v>505272</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>566128</v>
+        <v>564160</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6098853137197884</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5792256830771777</v>
+        <v>0.5782323013382272</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.647876749533401</v>
+        <v>0.645624474608428</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1002</v>
@@ -4012,19 +4012,19 @@
         <v>1062400</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1017027</v>
+        <v>1018467</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1100948</v>
+        <v>1100696</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6040014683020521</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5782055183559763</v>
+        <v>0.5790242667066037</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.625917197103264</v>
+        <v>0.6257739249181522</v>
       </c>
     </row>
     <row r="17">
@@ -4041,19 +4041,19 @@
         <v>249577</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>222250</v>
+        <v>222043</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>277462</v>
+        <v>276628</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2819709346756392</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2510978083894589</v>
+        <v>0.2508629957460445</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3134752268243828</v>
+        <v>0.3125329135620141</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>238</v>
@@ -4062,19 +4062,19 @@
         <v>255222</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>227386</v>
+        <v>228185</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>284396</v>
+        <v>280637</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2920760020170329</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2602203968798135</v>
+        <v>0.2611345136462866</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3254630069102802</v>
+        <v>0.3211603400381574</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>467</v>
@@ -4083,19 +4083,19 @@
         <v>504799</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>465235</v>
+        <v>466863</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>546345</v>
+        <v>544287</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2869910259472489</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2644982312121096</v>
+        <v>0.2654237095516212</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3106108721682674</v>
+        <v>0.309440878734368</v>
       </c>
     </row>
     <row r="18">
@@ -4112,19 +4112,19 @@
         <v>91767</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>73636</v>
+        <v>73130</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>111126</v>
+        <v>110314</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1036779820004794</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08319409206600883</v>
+        <v>0.08262194122282804</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1255501053174389</v>
+        <v>0.1246319544661978</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>67</v>
@@ -4133,19 +4133,19 @@
         <v>72629</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>57490</v>
+        <v>56965</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>89379</v>
+        <v>92061</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08311688981690447</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06579165265304524</v>
+        <v>0.06519029641745815</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1022850101918738</v>
+        <v>0.1053549224942561</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>154</v>
@@ -4154,19 +4154,19 @@
         <v>164396</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>139926</v>
+        <v>139855</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>189646</v>
+        <v>188863</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09346344745871445</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07955163011145987</v>
+        <v>0.07951128472274895</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1078188193744426</v>
+        <v>0.1073736722024683</v>
       </c>
     </row>
     <row r="19">
@@ -4183,19 +4183,19 @@
         <v>12164</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6996</v>
+        <v>6916</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21696</v>
+        <v>20113</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01374303678629675</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007903655266863898</v>
+        <v>0.007814092104497549</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02451211041714477</v>
+        <v>0.02272385355104379</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -4204,19 +4204,19 @@
         <v>9886</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4925</v>
+        <v>4259</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19613</v>
+        <v>18298</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01131347182385164</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005636167448078753</v>
+        <v>0.0048734731810968</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0224447564338827</v>
+        <v>0.02094059271307735</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -4225,19 +4225,19 @@
         <v>22050</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13990</v>
+        <v>14125</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33155</v>
+        <v>33776</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01253605444271375</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007953720231289754</v>
+        <v>0.008030641037018263</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01884952997012828</v>
+        <v>0.0192027979434194</v>
       </c>
     </row>
     <row r="20">
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7801</v>
+        <v>7565</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002415345203109084</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.008813058643354712</v>
+        <v>0.008546894378311161</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -4275,19 +4275,19 @@
         <v>3153</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>969</v>
+        <v>987</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8388</v>
+        <v>8594</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003608322622422523</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001109438495268478</v>
+        <v>0.001129156028247864</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.009599718366439186</v>
+        <v>0.009834494939403476</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -4296,19 +4296,19 @@
         <v>5291</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2027</v>
+        <v>2034</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11758</v>
+        <v>11670</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00300800384927075</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001152498880577199</v>
+        <v>0.001156502415019571</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.006684631403209047</v>
+        <v>0.0066345663703153</v>
       </c>
     </row>
     <row r="21">
@@ -4400,19 +4400,19 @@
         <v>337094</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>313405</v>
+        <v>312779</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>357788</v>
+        <v>356580</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6745672354455089</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.627162081664433</v>
+        <v>0.6259092226978608</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.715977458730676</v>
+        <v>0.7135617458969753</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>291</v>
@@ -4421,19 +4421,19 @@
         <v>318928</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>297734</v>
+        <v>298855</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>337569</v>
+        <v>339455</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7060671227706149</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6591458942890451</v>
+        <v>0.6616275300599815</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7473372503196587</v>
+        <v>0.7515129234784221</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>600</v>
@@ -4442,19 +4442,19 @@
         <v>656022</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>625577</v>
+        <v>620393</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>685382</v>
+        <v>685293</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6895221912274981</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6575227005073477</v>
+        <v>0.6520735717097804</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7203812228346614</v>
+        <v>0.7202883833419075</v>
       </c>
     </row>
     <row r="23">
@@ -4471,19 +4471,19 @@
         <v>115585</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>97869</v>
+        <v>96925</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>135320</v>
+        <v>135272</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2313007312496036</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1958482944391889</v>
+        <v>0.1939599127395605</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2707924881887394</v>
+        <v>0.2706954217040272</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>84</v>
@@ -4492,19 +4492,19 @@
         <v>92194</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>76773</v>
+        <v>74980</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>113069</v>
+        <v>110787</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2041054126586787</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1699667369773975</v>
+        <v>0.1659965218221925</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2503202336186857</v>
+        <v>0.245268284339023</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>192</v>
@@ -4513,19 +4513,19 @@
         <v>207779</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>181474</v>
+        <v>183114</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>236121</v>
+        <v>236897</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2183894219865943</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.19074134725541</v>
+        <v>0.1924653635951286</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2481783820020989</v>
+        <v>0.2489941653289077</v>
       </c>
     </row>
     <row r="24">
@@ -4542,19 +4542,19 @@
         <v>38999</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26543</v>
+        <v>27591</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>54380</v>
+        <v>53553</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07804098661150326</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05311557833093785</v>
+        <v>0.05521380129749026</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1088211991698138</v>
+        <v>0.1071668448845279</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>28</v>
@@ -4563,19 +4563,19 @@
         <v>31804</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>21950</v>
+        <v>21336</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>44344</v>
+        <v>45324</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07040962221725348</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04859405127852345</v>
+        <v>0.04723586810507249</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09817325663499403</v>
+        <v>0.1003426434622801</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>62</v>
@@ -4584,19 +4584,19 @@
         <v>70802</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>54726</v>
+        <v>54356</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>89746</v>
+        <v>89501</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07441790326855773</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05752038429892025</v>
+        <v>0.05713167084703145</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09432947180227999</v>
+        <v>0.09407129826272483</v>
       </c>
     </row>
     <row r="25">
@@ -4613,19 +4613,19 @@
         <v>6189</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2025</v>
+        <v>2117</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14674</v>
+        <v>15505</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01238404209184552</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004051400469964206</v>
+        <v>0.004236314781716536</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02936365355283869</v>
+        <v>0.03102795918355397</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -4634,19 +4634,19 @@
         <v>7790</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3064</v>
+        <v>3134</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14837</v>
+        <v>15364</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01724629188375392</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006782246826265499</v>
+        <v>0.006937672070265361</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03284802067053208</v>
+        <v>0.03401478688436421</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -4655,19 +4655,19 @@
         <v>13979</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7532</v>
+        <v>6966</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23222</v>
+        <v>23524</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01469245449626138</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007916193337877702</v>
+        <v>0.00732155781053657</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02440771298008879</v>
+        <v>0.02472550932280851</v>
       </c>
     </row>
     <row r="26">
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6504</v>
+        <v>6580</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003707004601538782</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01301550640817229</v>
+        <v>0.01316783943127543</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3998</v>
+        <v>4679</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.002171550469698905</v>
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.008850281941193137</v>
+        <v>0.01035773450327369</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -4726,19 +4726,19 @@
         <v>2833</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8425</v>
+        <v>7173</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.002978029021088484</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0008865669138592756</v>
+        <v>0.0008797879356984809</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008855687932285868</v>
+        <v>0.007539419991514694</v>
       </c>
     </row>
     <row r="27">
@@ -4830,19 +4830,19 @@
         <v>2069286</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2009936</v>
+        <v>2007981</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2128200</v>
+        <v>2125949</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6086471790445716</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5911902326207213</v>
+        <v>0.5906152309891188</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.625975783090909</v>
+        <v>0.6253136858160456</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1926</v>
@@ -4851,19 +4851,19 @@
         <v>2072319</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2010010</v>
+        <v>2015344</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2131757</v>
+        <v>2134701</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5858098069340316</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.568196254909641</v>
+        <v>0.5697039398378384</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6026121479762755</v>
+        <v>0.6034443102691487</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3876</v>
@@ -4872,19 +4872,19 @@
         <v>4141604</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4058441</v>
+        <v>4053141</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4227469</v>
+        <v>4226246</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5970018160245615</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5850141093101706</v>
+        <v>0.584250121419115</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6093789848842385</v>
+        <v>0.6092026918232689</v>
       </c>
     </row>
     <row r="29">
@@ -4901,19 +4901,19 @@
         <v>883339</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>836001</v>
+        <v>833710</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>938354</v>
+        <v>936849</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2598199154043889</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2458963831351511</v>
+        <v>0.2452222665868559</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.276001809806526</v>
+        <v>0.2755589295779824</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>935</v>
@@ -4922,19 +4922,19 @@
         <v>1007958</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>949843</v>
+        <v>956433</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1063258</v>
+        <v>1063273</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2849328137170251</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2685048591840699</v>
+        <v>0.2703674854006182</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3005651530974953</v>
+        <v>0.3005694313765576</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1756</v>
@@ -4943,19 +4943,19 @@
         <v>1891296</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1808145</v>
+        <v>1815322</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1965431</v>
+        <v>1967599</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2726256277218878</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2606395185770851</v>
+        <v>0.2616741158215873</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2833119709157815</v>
+        <v>0.2836244062946189</v>
       </c>
     </row>
     <row r="30">
@@ -4972,19 +4972,19 @@
         <v>354917</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>318723</v>
+        <v>316599</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>397485</v>
+        <v>390603</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1043931438502273</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09374722806451923</v>
+        <v>0.09312249955878255</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1169137643189654</v>
+        <v>0.1148896950592388</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>320</v>
@@ -4993,19 +4993,19 @@
         <v>347276</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>310810</v>
+        <v>312629</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>385798</v>
+        <v>385750</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09816923539192485</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08786074845942765</v>
+        <v>0.08837486832820346</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1090585019190063</v>
+        <v>0.1090450922834388</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>647</v>
@@ -5014,19 +5014,19 @@
         <v>702193</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>654387</v>
+        <v>653487</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>751573</v>
+        <v>758614</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1012194129564354</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09432826880176498</v>
+        <v>0.09419851290284119</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1083373716054151</v>
+        <v>0.1093522976161959</v>
       </c>
     </row>
     <row r="31">
@@ -5043,19 +5043,19 @@
         <v>74059</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>58423</v>
+        <v>58014</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>93191</v>
+        <v>92985</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02178336090541121</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01718418868434423</v>
+        <v>0.0170639558153436</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02741068511340977</v>
+        <v>0.02735018791493124</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>70</v>
@@ -5064,19 +5064,19 @@
         <v>78344</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>61423</v>
+        <v>60375</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>97971</v>
+        <v>97346</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02214653233689366</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0173632153763251</v>
+        <v>0.01706692027342068</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02769477507929809</v>
+        <v>0.02751807233862775</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>140</v>
@@ -5085,19 +5085,19 @@
         <v>152403</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>128167</v>
+        <v>126734</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>177846</v>
+        <v>176023</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02196855135279014</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01847490785471597</v>
+        <v>0.01826834820653519</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02563604841495261</v>
+        <v>0.02537331009249002</v>
       </c>
     </row>
     <row r="32">
@@ -5114,19 +5114,19 @@
         <v>18211</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10726</v>
+        <v>10711</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>30274</v>
+        <v>29928</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005356400795400961</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003154988744291822</v>
+        <v>0.00315034306814045</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.008904737010998203</v>
+        <v>0.008802845301634553</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>28</v>
@@ -5135,19 +5135,19 @@
         <v>31631</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>21368</v>
+        <v>20973</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>46778</v>
+        <v>46465</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.008941611620124804</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006040478779294179</v>
+        <v>0.005928843060773088</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01322330596977708</v>
+        <v>0.01313492691523963</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>44</v>
@@ -5156,19 +5156,19 @@
         <v>49842</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>35877</v>
+        <v>36147</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>66840</v>
+        <v>65469</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.007184591944325225</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.005171578356517095</v>
+        <v>0.00521053657704984</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.00963483976300223</v>
+        <v>0.009437199218617982</v>
       </c>
     </row>
     <row r="33">
@@ -5500,19 +5500,19 @@
         <v>511637</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>476681</v>
+        <v>478136</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>545680</v>
+        <v>547353</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4540006947794691</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.422982886600497</v>
+        <v>0.4242736711023239</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4842093330282841</v>
+        <v>0.4856933012961359</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>518</v>
@@ -5521,19 +5521,19 @@
         <v>543866</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>506791</v>
+        <v>509308</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>577517</v>
+        <v>577803</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4328704465375461</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4033624857835978</v>
+        <v>0.4053653227572703</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4596536997188698</v>
+        <v>0.4598816871095446</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>997</v>
@@ -5542,19 +5542,19 @@
         <v>1055502</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1004205</v>
+        <v>1007812</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1108451</v>
+        <v>1107712</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4428616638788072</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.421338814642173</v>
+        <v>0.4228521025295398</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4650777596159651</v>
+        <v>0.4647677065353546</v>
       </c>
     </row>
     <row r="5">
@@ -5571,19 +5571,19 @@
         <v>370856</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>337813</v>
+        <v>341157</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>406525</v>
+        <v>405372</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.329079298247357</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2997587198646094</v>
+        <v>0.3027254581352876</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3607302904611712</v>
+        <v>0.3597065542199674</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>441</v>
@@ -5592,19 +5592,19 @@
         <v>466132</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>432713</v>
+        <v>429267</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>502225</v>
+        <v>498817</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3710008937251475</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3444020196872566</v>
+        <v>0.3416594769069963</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.399727891390601</v>
+        <v>0.3970157654463641</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>796</v>
@@ -5613,19 +5613,19 @@
         <v>836988</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>787784</v>
+        <v>791291</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>889321</v>
+        <v>888418</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3511787048461724</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3305338257101576</v>
+        <v>0.3320051972007632</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.373136255837747</v>
+        <v>0.3727572209609951</v>
       </c>
     </row>
     <row r="6">
@@ -5642,19 +5642,19 @@
         <v>188312</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>165528</v>
+        <v>161931</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>214671</v>
+        <v>212975</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1670982291738158</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1468808379737047</v>
+        <v>0.1436899046364846</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1904882922885774</v>
+        <v>0.1889833085005227</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>173</v>
@@ -5663,19 +5663,19 @@
         <v>188602</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>163507</v>
+        <v>166150</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>214006</v>
+        <v>217900</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1501110674307255</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1301376433924772</v>
+        <v>0.1322410585929009</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1703307145552826</v>
+        <v>0.173429747083444</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>351</v>
@@ -5684,19 +5684,19 @@
         <v>376914</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>342096</v>
+        <v>341811</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>418425</v>
+        <v>415750</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1581432695630997</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1435345893113356</v>
+        <v>0.1434149097107897</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1755603118394623</v>
+        <v>0.1744379196040046</v>
       </c>
     </row>
     <row r="7">
@@ -5713,19 +5713,19 @@
         <v>41723</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30725</v>
+        <v>29612</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54578</v>
+        <v>56852</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03702292446478299</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02726421906805156</v>
+        <v>0.02627623576583747</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0484299771738755</v>
+        <v>0.05044762047339654</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -5734,19 +5734,19 @@
         <v>45009</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32170</v>
+        <v>32460</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59566</v>
+        <v>60392</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0358234884615583</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02560443236879889</v>
+        <v>0.02583503437199285</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04740925106739715</v>
+        <v>0.04806668041879579</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -5755,19 +5755,19 @@
         <v>86732</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70780</v>
+        <v>70343</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>109800</v>
+        <v>107135</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03639062925696907</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02969731032648159</v>
+        <v>0.02951410884236335</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04606938849795953</v>
+        <v>0.04495107089252379</v>
       </c>
     </row>
     <row r="8">
@@ -5784,19 +5784,19 @@
         <v>14424</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8025</v>
+        <v>8155</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23353</v>
+        <v>22822</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01279885333457509</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007120925134243374</v>
+        <v>0.007236533864558101</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02072212868933683</v>
+        <v>0.02025149946368515</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -5805,19 +5805,19 @@
         <v>12808</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7225</v>
+        <v>6432</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23251</v>
+        <v>21528</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01019410384502261</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005750799245732515</v>
+        <v>0.005119374032148944</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01850554056179409</v>
+        <v>0.01713477583159409</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>25</v>
@@ -5826,19 +5826,19 @@
         <v>27232</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17791</v>
+        <v>16835</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>40992</v>
+        <v>39788</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01142573245495176</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.007464607627063444</v>
+        <v>0.007063509965684997</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01719909049999137</v>
+        <v>0.01669407336303568</v>
       </c>
     </row>
     <row r="9">
@@ -5930,19 +5930,19 @@
         <v>426968</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>396043</v>
+        <v>399276</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>458195</v>
+        <v>459141</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4710536393397166</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4369357126353017</v>
+        <v>0.4405021334855535</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5055043122709255</v>
+        <v>0.5065483329298986</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>477</v>
@@ -5951,19 +5951,19 @@
         <v>500298</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>468944</v>
+        <v>470476</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>534238</v>
+        <v>532010</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4984735632767687</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4672337231616517</v>
+        <v>0.4687606377382221</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5322894119333367</v>
+        <v>0.530070197739801</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>894</v>
@@ -5972,19 +5972,19 @@
         <v>927266</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>883827</v>
+        <v>885529</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>968639</v>
+        <v>973456</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4854616237461549</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4627194412314358</v>
+        <v>0.4636105646447293</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5071222181815798</v>
+        <v>0.5096440801364773</v>
       </c>
     </row>
     <row r="11">
@@ -6001,19 +6001,19 @@
         <v>325224</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>295848</v>
+        <v>296016</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>355630</v>
+        <v>351976</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3588040217895881</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3263954596712603</v>
+        <v>0.3265803898847993</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3923496445266489</v>
+        <v>0.3883183595500476</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>316</v>
@@ -6022,19 +6022,19 @@
         <v>334867</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>305873</v>
+        <v>303438</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>364682</v>
+        <v>365812</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3336454683781868</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.304758032045654</v>
+        <v>0.302331824675244</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3633518238781092</v>
+        <v>0.3644782868020583</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>627</v>
@@ -6043,19 +6043,19 @@
         <v>660091</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>618260</v>
+        <v>619207</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>703149</v>
+        <v>700840</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3455842898139571</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3236841848565203</v>
+        <v>0.3241799722858713</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3681274141008002</v>
+        <v>0.3669182163349185</v>
       </c>
     </row>
     <row r="12">
@@ -6072,19 +6072,19 @@
         <v>140460</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>119558</v>
+        <v>119403</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>162536</v>
+        <v>163020</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1549629905733264</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1319030848238594</v>
+        <v>0.1317312587251603</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1793179117068392</v>
+        <v>0.1798521014272951</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>134</v>
@@ -6093,19 +6093,19 @@
         <v>143517</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>121648</v>
+        <v>122090</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>165521</v>
+        <v>168520</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1429940954133668</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1212048581340669</v>
+        <v>0.1216449204829401</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1649170965680554</v>
+        <v>0.1679054287621417</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>272</v>
@@ -6114,19 +6114,19 @@
         <v>283978</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>251079</v>
+        <v>254938</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>315137</v>
+        <v>316329</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1486738536952343</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1314502092050423</v>
+        <v>0.1334702929618352</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.16498720437246</v>
+        <v>0.1656111992865828</v>
       </c>
     </row>
     <row r="13">
@@ -6143,19 +6143,19 @@
         <v>11723</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6023</v>
+        <v>5862</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20560</v>
+        <v>20307</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01293355418320751</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006644369196389141</v>
+        <v>0.006466929683677026</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02268283991740464</v>
+        <v>0.02240338101427369</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -6164,19 +6164,19 @@
         <v>18750</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10953</v>
+        <v>10954</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30912</v>
+        <v>29902</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01868199975544874</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01091337423622219</v>
+        <v>0.01091369802161504</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0307990513918597</v>
+        <v>0.02979291679258424</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -6185,19 +6185,19 @@
         <v>30473</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20300</v>
+        <v>20288</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43472</v>
+        <v>45121</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0159541137717844</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01062785142208575</v>
+        <v>0.01062158987745514</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02275958903718381</v>
+        <v>0.02362261570364207</v>
       </c>
     </row>
     <row r="14">
@@ -6217,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6873</v>
+        <v>6556</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002245794114161496</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.007582991980153642</v>
+        <v>0.00723311245510107</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -6235,19 +6235,19 @@
         <v>6228</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2429</v>
+        <v>2045</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13667</v>
+        <v>12762</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006204873176229063</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002420319285150885</v>
+        <v>0.002037894639316501</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01361713264463114</v>
+        <v>0.0127152350086065</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -6256,19 +6256,19 @@
         <v>8263</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4091</v>
+        <v>3296</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15797</v>
+        <v>15626</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004326118972869287</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002141714627691609</v>
+        <v>0.001725473165147775</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.008270395033507395</v>
+        <v>0.008180722020072022</v>
       </c>
     </row>
     <row r="15">
@@ -6360,19 +6360,19 @@
         <v>421355</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>392302</v>
+        <v>392904</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>450036</v>
+        <v>449613</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5126996370925884</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4773480181864446</v>
+        <v>0.4780803963892824</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5475981821038102</v>
+        <v>0.5470834457923658</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>391</v>
@@ -6381,19 +6381,19 @@
         <v>407289</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>378189</v>
+        <v>378807</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>434910</v>
+        <v>434002</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5282205367267846</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.490480582703716</v>
+        <v>0.4912814677609948</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5640424589623937</v>
+        <v>0.5628646003719759</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>796</v>
@@ -6402,19 +6402,19 @@
         <v>828644</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>787721</v>
+        <v>790094</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>869503</v>
+        <v>869983</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5202127056161896</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4945217209143571</v>
+        <v>0.4960114544624024</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5458634204513989</v>
+        <v>0.5461648753523543</v>
       </c>
     </row>
     <row r="17">
@@ -6431,19 +6431,19 @@
         <v>278828</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>249465</v>
+        <v>252562</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>304406</v>
+        <v>307702</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3392743860391339</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3035463789820886</v>
+        <v>0.307313806492237</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3703974927778947</v>
+        <v>0.3744083275745508</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>242</v>
@@ -6452,19 +6452,19 @@
         <v>257329</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>230593</v>
+        <v>230770</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>283801</v>
+        <v>284470</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.333734084049926</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2990603066727544</v>
+        <v>0.2992893278658888</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3680660333064211</v>
+        <v>0.3689336597190683</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>507</v>
@@ -6473,19 +6473,19 @@
         <v>536157</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>497104</v>
+        <v>499076</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>574815</v>
+        <v>577489</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3365925396599038</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3120756343239685</v>
+        <v>0.3133135378638774</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3608618832691682</v>
+        <v>0.3625403072521555</v>
       </c>
     </row>
     <row r="18">
@@ -6502,19 +6502,19 @@
         <v>108507</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>90329</v>
+        <v>90241</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>128163</v>
+        <v>128641</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1320294888116311</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1099109112143361</v>
+        <v>0.1098046614016468</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1559469208809836</v>
+        <v>0.1565291166507076</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>83</v>
@@ -6523,19 +6523,19 @@
         <v>92555</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>75473</v>
+        <v>74065</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>114137</v>
+        <v>112155</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1200362653318201</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09788220912029925</v>
+        <v>0.09605599881138431</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1480265226781468</v>
+        <v>0.1454557365410565</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>186</v>
@@ -6544,19 +6544,19 @@
         <v>201062</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>175599</v>
+        <v>173940</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>230261</v>
+        <v>229664</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1262240321727544</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1102391303211172</v>
+        <v>0.1091976387589489</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1445551511897775</v>
+        <v>0.1441802794822592</v>
       </c>
     </row>
     <row r="19">
@@ -6573,19 +6573,19 @@
         <v>10159</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4946</v>
+        <v>5133</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18448</v>
+        <v>19100</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01236076440758327</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006018729606160812</v>
+        <v>0.006245508859179018</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02244765932723105</v>
+        <v>0.023240291342463</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -6594,19 +6594,19 @@
         <v>13886</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7231</v>
+        <v>7196</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24283</v>
+        <v>25726</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01800911389146929</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009377395779207908</v>
+        <v>0.00933268161002215</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03149362049782115</v>
+        <v>0.033364861089677</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -6615,19 +6615,19 @@
         <v>24045</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15894</v>
+        <v>15112</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36539</v>
+        <v>35662</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01509491240917111</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009978131258695844</v>
+        <v>0.009487345366388893</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02293904128018253</v>
+        <v>0.02238834670942085</v>
       </c>
     </row>
     <row r="20">
@@ -6647,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11596</v>
+        <v>10074</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003635723649063331</v>
@@ -6656,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01411014664936531</v>
+        <v>0.01225775664357502</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9722</v>
+        <v>10329</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001875810141981063</v>
@@ -6690,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.006103158727466384</v>
+        <v>0.006484156990534564</v>
       </c>
     </row>
     <row r="21">
@@ -6782,19 +6782,19 @@
         <v>308455</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>286542</v>
+        <v>286157</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>330418</v>
+        <v>330461</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6087506379118639</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5655047542407171</v>
+        <v>0.5647451810767857</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6520960537530142</v>
+        <v>0.652180805321077</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>305</v>
@@ -6803,19 +6803,19 @@
         <v>327960</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>305952</v>
+        <v>304461</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>348382</v>
+        <v>346376</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6710004004880307</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6259721795515107</v>
+        <v>0.6229218647152572</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7127831284961959</v>
+        <v>0.7086784582575906</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>596</v>
@@ -6824,19 +6824,19 @@
         <v>636415</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>605035</v>
+        <v>601064</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>664664</v>
+        <v>665780</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6393146635518152</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6077915214508873</v>
+        <v>0.6038032857412763</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6676928589657231</v>
+        <v>0.668813662129628</v>
       </c>
     </row>
     <row r="23">
@@ -6853,19 +6853,19 @@
         <v>143063</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>122549</v>
+        <v>122905</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>163568</v>
+        <v>163364</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2823420084693208</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2418564272857353</v>
+        <v>0.2425589388923161</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.322810175112286</v>
+        <v>0.3224062892622414</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>106</v>
@@ -6874,19 +6874,19 @@
         <v>114099</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>95813</v>
+        <v>97078</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>134656</v>
+        <v>134807</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2334439416884474</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1960309562967957</v>
+        <v>0.198619276876696</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2755043792813734</v>
+        <v>0.2758133573971301</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>235</v>
@@ -6895,19 +6895,19 @@
         <v>257162</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>231711</v>
+        <v>229545</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>287750</v>
+        <v>286715</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2583335351035627</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2327672898991321</v>
+        <v>0.2305904627297349</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2890608523571601</v>
+        <v>0.288021216211381</v>
       </c>
     </row>
     <row r="24">
@@ -6924,19 +6924,19 @@
         <v>51396</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>37968</v>
+        <v>37760</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>65899</v>
+        <v>65368</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1014327206126124</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07493195949428792</v>
+        <v>0.07452088101806043</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1300544994028434</v>
+        <v>0.1290070974373047</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>36</v>
@@ -6945,19 +6945,19 @@
         <v>37703</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>27078</v>
+        <v>27099</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>50520</v>
+        <v>50835</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07713996112292063</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05540141048932716</v>
+        <v>0.05544399880436006</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1033634878128577</v>
+        <v>0.1040069992143372</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>83</v>
@@ -6966,19 +6966,19 @@
         <v>89099</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>71810</v>
+        <v>71638</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>109126</v>
+        <v>109154</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08950521288919532</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07213705491510466</v>
+        <v>0.0719640584685363</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1096234780444068</v>
+        <v>0.1096513767545653</v>
       </c>
     </row>
     <row r="25">
@@ -6995,19 +6995,19 @@
         <v>2960</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8552</v>
+        <v>7868</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005841635176642251</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001706105369441029</v>
+        <v>0.001689887698864956</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01687690430399324</v>
+        <v>0.01552764058457494</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -7016,19 +7016,19 @@
         <v>7796</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3163</v>
+        <v>3155</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15795</v>
+        <v>16556</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01595002967992304</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006471149632651932</v>
+        <v>0.006454459620543743</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03231569922948238</v>
+        <v>0.03387340656689698</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -7037,19 +7037,19 @@
         <v>10756</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5084</v>
+        <v>5248</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20658</v>
+        <v>20348</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01080475818291865</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005107030029243072</v>
+        <v>0.0052717389620036</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02075253755641351</v>
+        <v>0.02044034354286604</v>
       </c>
     </row>
     <row r="26">
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4951</v>
+        <v>4190</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.001632997829560566</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.009771366273244528</v>
+        <v>0.008268870400146202</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -7090,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5957</v>
+        <v>6244</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.002465667020678229</v>
@@ -7099,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01218762486910181</v>
+        <v>0.01277499895775579</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2</v>
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7172</v>
+        <v>6474</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.002041830272508093</v>
@@ -7120,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.007205125864611407</v>
+        <v>0.006503770504652842</v>
       </c>
     </row>
     <row r="27">
@@ -7212,19 +7212,19 @@
         <v>1668414</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1608994</v>
+        <v>1613559</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1724465</v>
+        <v>1726497</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4962713935648652</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4785968218545643</v>
+        <v>0.4799545259877028</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5129437837155075</v>
+        <v>0.5135482634825682</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1691</v>
@@ -7233,19 +7233,19 @@
         <v>1779413</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1717275</v>
+        <v>1720336</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1842637</v>
+        <v>1843030</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5055295975369423</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4878762608749236</v>
+        <v>0.488745699938226</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5234913208377662</v>
+        <v>0.5236030060026114</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3283</v>
@@ -7254,19 +7254,19 @@
         <v>3447827</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3357820</v>
+        <v>3362263</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3527152</v>
+        <v>3531860</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5010067758469597</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4879277671849984</v>
+        <v>0.4885733362990861</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5125334552339028</v>
+        <v>0.513217651919189</v>
       </c>
     </row>
     <row r="29">
@@ -7283,19 +7283,19 @@
         <v>1117971</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1069343</v>
+        <v>1058557</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1175315</v>
+        <v>1171314</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3325415353051556</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3180769986151584</v>
+        <v>0.3148689048838745</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3495986382733193</v>
+        <v>0.3484083954548332</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1105</v>
@@ -7304,19 +7304,19 @@
         <v>1172426</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1118320</v>
+        <v>1113885</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1233902</v>
+        <v>1236438</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3330850887960357</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3177136329706485</v>
+        <v>0.3164538170806028</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3505502631132058</v>
+        <v>0.3512709119020207</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2165</v>
@@ -7325,19 +7325,19 @@
         <v>2290397</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2214769</v>
+        <v>2216544</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2377817</v>
+        <v>2377530</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3328195518165489</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3218299785843571</v>
+        <v>0.3220879729099775</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3455225995978399</v>
+        <v>0.3454809234213125</v>
       </c>
     </row>
     <row r="30">
@@ -7354,19 +7354,19 @@
         <v>488674</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>448865</v>
+        <v>446340</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>534787</v>
+        <v>531269</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1453566355627362</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1335154054756618</v>
+        <v>0.1327643863631658</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.159072767739679</v>
+        <v>0.1580263484848436</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>426</v>
@@ -7375,19 +7375,19 @@
         <v>462378</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>421556</v>
+        <v>419992</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>504085</v>
+        <v>505573</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1313610853727219</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1197637306529217</v>
+        <v>0.1193192421089484</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1432100803058381</v>
+        <v>0.1436328245550244</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>892</v>
@@ -7396,19 +7396,19 @@
         <v>951052</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>891968</v>
+        <v>894290</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1010134</v>
+        <v>1009577</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1381981974252915</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1296126117891972</v>
+        <v>0.1299500813500753</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1467833960980854</v>
+        <v>0.1467025267686513</v>
       </c>
     </row>
     <row r="31">
@@ -7425,19 +7425,19 @@
         <v>66565</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>49003</v>
+        <v>52486</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>83038</v>
+        <v>85310</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01979970702180357</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0145759386755548</v>
+        <v>0.01561213388945683</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02469987446468829</v>
+        <v>0.02537567299968951</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>76</v>
@@ -7446,19 +7446,19 @@
         <v>85441</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>68875</v>
+        <v>67821</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>108121</v>
+        <v>107413</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0242738481548126</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01956726032027513</v>
+        <v>0.01926786002899611</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03071701004963959</v>
+        <v>0.03051586568158153</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>139</v>
@@ -7467,19 +7467,19 @@
         <v>152006</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>127154</v>
+        <v>127807</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>180049</v>
+        <v>178618</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02208813885077829</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01847692112991298</v>
+        <v>0.01857172670627438</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02616311777877521</v>
+        <v>0.02595518258314122</v>
       </c>
     </row>
     <row r="32">
@@ -7496,19 +7496,19 @@
         <v>20275</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>12231</v>
+        <v>12496</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31043</v>
+        <v>32150</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.006030728545439483</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003638084115350464</v>
+        <v>0.003717007482385299</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.009233830819338765</v>
+        <v>0.009562909184200849</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -7517,19 +7517,19 @@
         <v>20241</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>12458</v>
+        <v>12317</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>31009</v>
+        <v>31699</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005750380139487504</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003539167392221178</v>
+        <v>0.003499211441806194</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.008809663660427722</v>
+        <v>0.009005721685503357</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>37</v>
@@ -7538,19 +7538,19 @@
         <v>40515</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>30546</v>
+        <v>27985</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>56374</v>
+        <v>56230</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005887336060421613</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004438643848009773</v>
+        <v>0.004066557406391448</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.008191688099231292</v>
+        <v>0.008170799971874688</v>
       </c>
     </row>
     <row r="33">
@@ -7882,19 +7882,19 @@
         <v>196099</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>170664</v>
+        <v>173881</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>219544</v>
+        <v>223227</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3951536361382852</v>
+        <v>0.3951536361382853</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3439007837923169</v>
+        <v>0.3503826414000827</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.442396750812876</v>
+        <v>0.4498192342588839</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>355</v>
@@ -7903,19 +7903,19 @@
         <v>272681</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>248573</v>
+        <v>250258</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>296024</v>
+        <v>294909</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4387750743698225</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3999820343595989</v>
+        <v>0.402693321361858</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4763362312242542</v>
+        <v>0.4745421901108108</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>527</v>
@@ -7924,19 +7924,19 @@
         <v>468781</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>435183</v>
+        <v>435664</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>505431</v>
+        <v>503835</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4194074495810937</v>
+        <v>0.4194074495810936</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3893485601642129</v>
+        <v>0.3897792330541335</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4521974144954249</v>
+        <v>0.4507697212164795</v>
       </c>
     </row>
     <row r="5">
@@ -7953,19 +7953,19 @@
         <v>150987</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>129296</v>
+        <v>127902</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>174441</v>
+        <v>174878</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3042493809838001</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2605415072946965</v>
+        <v>0.2577321287068551</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3515118260163805</v>
+        <v>0.3523910480162525</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>266</v>
@@ -7974,19 +7974,19 @@
         <v>191258</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>173219</v>
+        <v>171888</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>213229</v>
+        <v>211716</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3077567216024693</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2787293978603058</v>
+        <v>0.2765872543891882</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3431091091686289</v>
+        <v>0.3406754043431391</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>402</v>
@@ -7995,19 +7995,19 @@
         <v>342246</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>312577</v>
+        <v>312967</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>374960</v>
+        <v>374382</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3061994859893725</v>
+        <v>0.3061994859893724</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2796556497573845</v>
+        <v>0.2800049659555118</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3354686943900095</v>
+        <v>0.334951440957575</v>
       </c>
     </row>
     <row r="6">
@@ -8024,19 +8024,19 @@
         <v>86215</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>68966</v>
+        <v>68529</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>108790</v>
+        <v>105514</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1737291206789604</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1389724148157576</v>
+        <v>0.1380900892425037</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2192190440237737</v>
+        <v>0.2126185012146656</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>130</v>
@@ -8045,19 +8045,19 @@
         <v>83720</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>70255</v>
+        <v>69574</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>96978</v>
+        <v>98383</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.134715771810457</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.113049062977161</v>
+        <v>0.1119519647447384</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1560482577649599</v>
+        <v>0.1583096431183925</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>209</v>
@@ -8066,19 +8066,19 @@
         <v>169935</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>144774</v>
+        <v>146999</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>194368</v>
+        <v>193385</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1520374359570251</v>
+        <v>0.152037435957025</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1295256747954383</v>
+        <v>0.1315167103339325</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1738968826966303</v>
+        <v>0.1730173599984313</v>
       </c>
     </row>
     <row r="7">
@@ -8095,19 +8095,19 @@
         <v>43975</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32122</v>
+        <v>32151</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59775</v>
+        <v>61402</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08861255198902854</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06472769440981985</v>
+        <v>0.06478724083641434</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.120451335278102</v>
+        <v>0.123730443391172</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>76</v>
@@ -8116,19 +8116,19 @@
         <v>51110</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40300</v>
+        <v>40522</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65184</v>
+        <v>63998</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08224235968506226</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06484759117447349</v>
+        <v>0.06520510420503971</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1048877121989094</v>
+        <v>0.1029806420746395</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>121</v>
@@ -8137,19 +8137,19 @@
         <v>95085</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79771</v>
+        <v>78912</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>114274</v>
+        <v>114949</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08507068216540793</v>
+        <v>0.08507068216540792</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07136929851835563</v>
+        <v>0.07060087714083982</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1022385557010457</v>
+        <v>0.1028426089750303</v>
       </c>
     </row>
     <row r="8">
@@ -8166,19 +8166,19 @@
         <v>18985</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12178</v>
+        <v>11632</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29349</v>
+        <v>28576</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03825531020992567</v>
+        <v>0.03825531020992568</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02453915815549846</v>
+        <v>0.02343961683949309</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05914047809309465</v>
+        <v>0.0575835395599018</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -8187,19 +8187,19 @@
         <v>22690</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>15679</v>
+        <v>15216</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36309</v>
+        <v>37484</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03651007253218903</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02522858178667149</v>
+        <v>0.02448432022253339</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05842530437002771</v>
+        <v>0.06031612924673954</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>52</v>
@@ -8208,19 +8208,19 @@
         <v>41674</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>30745</v>
+        <v>31504</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>55951</v>
+        <v>56988</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.03728494630710091</v>
+        <v>0.03728494630710089</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02750721854576879</v>
+        <v>0.02818584434358557</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05005849759637374</v>
+        <v>0.05098548903393584</v>
       </c>
     </row>
     <row r="9">
@@ -8312,19 +8312,19 @@
         <v>414150</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>380602</v>
+        <v>379892</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>449746</v>
+        <v>450485</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4317105382278713</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3967404416738172</v>
+        <v>0.3960004529143046</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4688165320744774</v>
+        <v>0.4695863043926289</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>725</v>
@@ -8333,19 +8333,19 @@
         <v>508234</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>482235</v>
+        <v>478955</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>541250</v>
+        <v>537282</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4559419635620621</v>
+        <v>0.455941963562062</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4326175211314739</v>
+        <v>0.4296748275596918</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4855604994528344</v>
+        <v>0.4820010189790049</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1104</v>
@@ -8354,19 +8354,19 @@
         <v>922384</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>879291</v>
+        <v>877216</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>969187</v>
+        <v>967260</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4447338604474532</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4239562479144615</v>
+        <v>0.4229556448712865</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4673001184687792</v>
+        <v>0.4663708596146708</v>
       </c>
     </row>
     <row r="11">
@@ -8383,19 +8383,19 @@
         <v>398946</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>364789</v>
+        <v>367018</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>433942</v>
+        <v>436363</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4158621494283862</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3802571754012832</v>
+        <v>0.3825800377141462</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4523417066682462</v>
+        <v>0.4548651155808009</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>613</v>
@@ -8404,19 +8404,19 @@
         <v>435254</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>409271</v>
+        <v>409529</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>464467</v>
+        <v>465589</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3904702801621543</v>
+        <v>0.3904702801621542</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3671613339148047</v>
+        <v>0.367392800305726</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4166778907647028</v>
+        <v>0.4176846152538369</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>987</v>
@@ -8425,19 +8425,19 @@
         <v>834200</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>789955</v>
+        <v>787614</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>878186</v>
+        <v>876922</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4022151397848787</v>
+        <v>0.4022151397848786</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3808821428819332</v>
+        <v>0.3797533194566101</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4234234535765642</v>
+        <v>0.4228139061644612</v>
       </c>
     </row>
     <row r="12">
@@ -8454,19 +8454,19 @@
         <v>110035</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>91003</v>
+        <v>89863</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>133991</v>
+        <v>133941</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1147006627207549</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09486161030211224</v>
+        <v>0.09367321771772566</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1396722296170204</v>
+        <v>0.1396207476466346</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>184</v>
@@ -8475,19 +8475,19 @@
         <v>119735</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>102437</v>
+        <v>102247</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>139170</v>
+        <v>138687</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1074153629172429</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09189726614542862</v>
+        <v>0.09172658085973884</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.124850480980788</v>
+        <v>0.12441744785561</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>299</v>
@@ -8496,19 +8496,19 @@
         <v>229770</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>204289</v>
+        <v>201547</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>256930</v>
+        <v>255706</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1107851354457861</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09849937343348678</v>
+        <v>0.09717704155306714</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1238806579051584</v>
+        <v>0.1232905188538458</v>
       </c>
     </row>
     <row r="13">
@@ -8525,19 +8525,19 @@
         <v>25436</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16807</v>
+        <v>17033</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37691</v>
+        <v>36684</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02651485939046552</v>
+        <v>0.02651485939046551</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0175195727084926</v>
+        <v>0.01775508515944968</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03928953692654041</v>
+        <v>0.03823915693928891</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -8546,19 +8546,19 @@
         <v>41958</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32450</v>
+        <v>33166</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52718</v>
+        <v>53925</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03764050144712164</v>
+        <v>0.03764050144712163</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.029111375004094</v>
+        <v>0.02975352007707857</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04729427100595344</v>
+        <v>0.04837671036226512</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>97</v>
@@ -8567,19 +8567,19 @@
         <v>67394</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54666</v>
+        <v>54250</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>82147</v>
+        <v>82921</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03249440122117735</v>
+        <v>0.03249440122117734</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02635756163393711</v>
+        <v>0.02615702816817895</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.039607692144632</v>
+        <v>0.03998110036108656</v>
       </c>
     </row>
     <row r="14">
@@ -8596,19 +8596,19 @@
         <v>10756</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5763</v>
+        <v>5671</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18717</v>
+        <v>20368</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01121179023252204</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006006941669317049</v>
+        <v>0.005910963233329162</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01951015119853589</v>
+        <v>0.02123188767789548</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -8617,19 +8617,19 @@
         <v>9510</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5423</v>
+        <v>5248</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15835</v>
+        <v>15673</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.008531891911419096</v>
+        <v>0.008531891911419094</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004864680945026198</v>
+        <v>0.00470814854731388</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01420551867769833</v>
+        <v>0.01406050782115229</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>27</v>
@@ -8638,19 +8638,19 @@
         <v>20266</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13491</v>
+        <v>13338</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>31058</v>
+        <v>29834</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.009771463100704741</v>
+        <v>0.009771463100704737</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00650491963355781</v>
+        <v>0.006431111396054319</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01497476831571345</v>
+        <v>0.01438485363297496</v>
       </c>
     </row>
     <row r="15">
@@ -8742,19 +8742,19 @@
         <v>634602</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>601236</v>
+        <v>599922</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>669967</v>
+        <v>668608</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6085624381438502</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5765655423992297</v>
+        <v>0.5753062838508523</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.642476966523454</v>
+        <v>0.6411729930980028</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>889</v>
@@ -8763,19 +8763,19 @@
         <v>629453</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>602259</v>
+        <v>602301</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>656033</v>
+        <v>655078</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6035448601097279</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.577469803344793</v>
+        <v>0.5775105524862925</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6290308504772313</v>
+        <v>0.6281147386215662</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1482</v>
@@ -8784,19 +8784,19 @@
         <v>1264055</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1219937</v>
+        <v>1218147</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1305174</v>
+        <v>1307197</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6060534813780406</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5849013170909283</v>
+        <v>0.5840428025885369</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6257683597439005</v>
+        <v>0.6267378437742935</v>
       </c>
     </row>
     <row r="17">
@@ -8813,19 +8813,19 @@
         <v>344597</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>311264</v>
+        <v>311190</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>375168</v>
+        <v>377088</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3304572486098072</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2984918305899362</v>
+        <v>0.2984214714071597</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3597743496966618</v>
+        <v>0.3616156507377412</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>485</v>
@@ -8834,19 +8834,19 @@
         <v>325567</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>300097</v>
+        <v>300665</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>350278</v>
+        <v>352213</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3121665117482685</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2877451281317543</v>
+        <v>0.2882894919993146</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3358603739498033</v>
+        <v>0.3377160046280233</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>843</v>
@@ -8855,19 +8855,19 @@
         <v>670164</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>630420</v>
+        <v>632554</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>712570</v>
+        <v>712852</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3213112686791877</v>
+        <v>0.3213112686791876</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3022559085409756</v>
+        <v>0.3032793752055952</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.341643164164207</v>
+        <v>0.3417783916024282</v>
       </c>
     </row>
     <row r="18">
@@ -8884,19 +8884,19 @@
         <v>52697</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>38946</v>
+        <v>39803</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>67101</v>
+        <v>66850</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05053450471842119</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03734791425047163</v>
+        <v>0.03817023999513262</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06434755706242734</v>
+        <v>0.06410669237833573</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>90</v>
@@ -8905,19 +8905,19 @@
         <v>60672</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48808</v>
+        <v>48935</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>76512</v>
+        <v>75713</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.05817482275016454</v>
+        <v>0.05817482275016455</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04679928108008555</v>
+        <v>0.04692055186381552</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07336318276991094</v>
+        <v>0.07259681368757123</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>151</v>
@@ -8926,19 +8926,19 @@
         <v>113369</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>96076</v>
+        <v>96748</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>132744</v>
+        <v>133559</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05435491916704917</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0460636126355741</v>
+        <v>0.04638577568012357</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06364431535870436</v>
+        <v>0.06403507101539042</v>
       </c>
     </row>
     <row r="19">
@@ -8955,19 +8955,19 @@
         <v>8738</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4856</v>
+        <v>4601</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14856</v>
+        <v>15342</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.008379554892729971</v>
+        <v>0.008379554892729972</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004656879794605435</v>
+        <v>0.004412035794792831</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01424597024220722</v>
+        <v>0.0147122751357362</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -8976,19 +8976,19 @@
         <v>19291</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12804</v>
+        <v>13122</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27153</v>
+        <v>27398</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01849675252982088</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01227690047676274</v>
+        <v>0.01258222641292623</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02603575370258123</v>
+        <v>0.0262701675570132</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>43</v>
@@ -8997,19 +8997,19 @@
         <v>28029</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20509</v>
+        <v>20370</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>38050</v>
+        <v>37541</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01343849195160362</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00983290749149277</v>
+        <v>0.009766367671495434</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01824294727245061</v>
+        <v>0.01799921936767059</v>
       </c>
     </row>
     <row r="20">
@@ -9029,16 +9029,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8388</v>
+        <v>10600</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.00206625363519141</v>
+        <v>0.002066253635191411</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.008043975755052345</v>
+        <v>0.01016487080441536</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -9047,19 +9047,19 @@
         <v>7944</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4381</v>
+        <v>4369</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12887</v>
+        <v>13099</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.007617052862018279</v>
+        <v>0.007617052862018278</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004200418124219089</v>
+        <v>0.004188706125609268</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01235628140786918</v>
+        <v>0.01255986845376636</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -9068,19 +9068,19 @@
         <v>10099</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5740</v>
+        <v>6149</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17129</v>
+        <v>18282</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.004841838824118888</v>
+        <v>0.004841838824118889</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002752208978798607</v>
+        <v>0.002948266265503823</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008212516379483868</v>
+        <v>0.008765374631908945</v>
       </c>
     </row>
     <row r="21">
@@ -9172,19 +9172,19 @@
         <v>680911</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>651261</v>
+        <v>649791</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>711784</v>
+        <v>710327</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6991054370723047</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6686634454936248</v>
+        <v>0.6671540434680268</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7308026574020172</v>
+        <v>0.7293074827464275</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>897</v>
@@ -9193,19 +9193,19 @@
         <v>650431</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>625154</v>
+        <v>624787</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>672036</v>
+        <v>675139</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.7175931990735053</v>
+        <v>0.7175931990735054</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6897057045979339</v>
+        <v>0.6893007469306246</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7414284974577254</v>
+        <v>0.7448520764197819</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1524</v>
@@ -9214,19 +9214,19 @@
         <v>1331343</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1293822</v>
+        <v>1292660</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1369177</v>
+        <v>1371166</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7080171560594348</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6880632846848486</v>
+        <v>0.6874454293974779</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7281375823512001</v>
+        <v>0.7291952207688545</v>
       </c>
     </row>
     <row r="23">
@@ -9243,19 +9243,19 @@
         <v>246581</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>219359</v>
+        <v>219252</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>276166</v>
+        <v>274642</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2531700624777971</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.225220510590731</v>
+        <v>0.2251108428103762</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2835456126777766</v>
+        <v>0.2819800428670884</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>361</v>
@@ -9264,19 +9264,19 @@
         <v>219003</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>197772</v>
+        <v>193851</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>242807</v>
+        <v>241291</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.241616702733866</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2181937882700601</v>
+        <v>0.2138672129491097</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2678785290096964</v>
+        <v>0.2662062378505028</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>632</v>
@@ -9285,19 +9285,19 @@
         <v>465584</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>428775</v>
+        <v>429355</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>502188</v>
+        <v>503132</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2476009570669611</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.228025423137082</v>
+        <v>0.2283339989930529</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2670668944603991</v>
+        <v>0.2675692261607222</v>
       </c>
     </row>
     <row r="24">
@@ -9314,19 +9314,19 @@
         <v>24335</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16654</v>
+        <v>16435</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>38345</v>
+        <v>39643</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02498524863194518</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01709876476693449</v>
+        <v>0.01687374324908545</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.039370014932176</v>
+        <v>0.04070222785337965</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>34</v>
@@ -9335,19 +9335,19 @@
         <v>22358</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15644</v>
+        <v>15238</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>30907</v>
+        <v>30872</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02466624700521441</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01725921262342755</v>
+        <v>0.01681184695931309</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03409890522755342</v>
+        <v>0.03405972937166436</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>60</v>
@@ -9356,19 +9356,19 @@
         <v>46693</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>35008</v>
+        <v>35438</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>60185</v>
+        <v>60626</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02483147918956068</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01861743146846493</v>
+        <v>0.01884604223843316</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03200681102519883</v>
+        <v>0.03224147006108803</v>
       </c>
     </row>
     <row r="25">
@@ -9385,19 +9385,19 @@
         <v>21038</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12230</v>
+        <v>12884</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>35249</v>
+        <v>38906</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02159975803913498</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01255710493470787</v>
+        <v>0.01322829833876538</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03619119921631494</v>
+        <v>0.03994525568984403</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -9406,19 +9406,19 @@
         <v>9585</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5740</v>
+        <v>5402</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15499</v>
+        <v>15237</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01057463636103521</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006332843554689578</v>
+        <v>0.00595958974900803</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01709970879247821</v>
+        <v>0.01680991354545272</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>35</v>
@@ -9427,19 +9427,19 @@
         <v>30623</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>21060</v>
+        <v>20860</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>44790</v>
+        <v>45340</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01628528102521837</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01120002305462539</v>
+        <v>0.01109350308600894</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02381940686585543</v>
+        <v>0.02411203083260659</v>
       </c>
     </row>
     <row r="26">
@@ -9459,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3339</v>
+        <v>3551</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.001139493778818067</v>
@@ -9468,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.003428054200218749</v>
+        <v>0.003646338290708465</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -9477,19 +9477,19 @@
         <v>5030</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2255</v>
+        <v>2340</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10342</v>
+        <v>9874</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.00554921482637916</v>
+        <v>0.005549214826379162</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002488386107201688</v>
+        <v>0.002581735625211369</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01140981529170802</v>
+        <v>0.01089316796940939</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -9498,19 +9498,19 @@
         <v>6140</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2936</v>
+        <v>3174</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11223</v>
+        <v>12242</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.003265126658825147</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001561339868395606</v>
+        <v>0.001687929694977084</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.005968255565999533</v>
+        <v>0.006510316315189986</v>
       </c>
     </row>
     <row r="27">
@@ -9602,19 +9602,19 @@
         <v>1925762</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1863357</v>
+        <v>1859745</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1985104</v>
+        <v>1990650</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.5545995637709474</v>
+        <v>0.5545995637709473</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5366277464671696</v>
+        <v>0.5355875720618035</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5716896229028616</v>
+        <v>0.5732867780971115</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2866</v>
@@ -9623,19 +9623,19 @@
         <v>2060800</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2004013</v>
+        <v>2003490</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2111376</v>
+        <v>2112030</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5591666484138076</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5437583736119657</v>
+        <v>0.5436164071270935</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5728894619203666</v>
+        <v>0.5730670376700612</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4637</v>
@@ -9644,19 +9644,19 @@
         <v>3986562</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3907656</v>
+        <v>3905397</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4068087</v>
+        <v>4070956</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5569511032681064</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5459272864864921</v>
+        <v>0.5456117053366417</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5683406316589485</v>
+        <v>0.5687414940852419</v>
       </c>
     </row>
     <row r="29">
@@ -9673,19 +9673,19 @@
         <v>1141111</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1085698</v>
+        <v>1081648</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1200357</v>
+        <v>1199531</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3286282652833672</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3126699456308359</v>
+        <v>0.3115034721989017</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3456905302643588</v>
+        <v>0.345452755766488</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1725</v>
@@ -9694,19 +9694,19 @@
         <v>1171082</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1123627</v>
+        <v>1125295</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1220560</v>
+        <v>1225724</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.317755229543643</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3048788805495996</v>
+        <v>0.3053316987306776</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3311802130502265</v>
+        <v>0.3325813443881577</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2864</v>
@@ -9715,19 +9715,19 @@
         <v>2312193</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2234296</v>
+        <v>2235623</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2382927</v>
+        <v>2390818</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3230298638970573</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.312147026989379</v>
+        <v>0.3123324726338126</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3329118133337096</v>
+        <v>0.3340142655902641</v>
       </c>
     </row>
     <row r="30">
@@ -9744,19 +9744,19 @@
         <v>273282</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>239873</v>
+        <v>238413</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>307117</v>
+        <v>306488</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07870230012145736</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06908098565085623</v>
+        <v>0.06866061633396643</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08844640783151508</v>
+        <v>0.08826530816493793</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>438</v>
@@ -9765,19 +9765,19 @@
         <v>286485</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>258184</v>
+        <v>259814</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>316045</v>
+        <v>316311</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.07773336668765556</v>
+        <v>0.07773336668765558</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07005427369504837</v>
+        <v>0.07049658444688017</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08575402106725064</v>
+        <v>0.08582622400586541</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>719</v>
@@ -9786,19 +9786,19 @@
         <v>559767</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>518585</v>
+        <v>514370</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>606306</v>
+        <v>603164</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.07820340741026909</v>
+        <v>0.0782034074102691</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07245007890226415</v>
+        <v>0.0718611103971568</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08470530677118571</v>
+        <v>0.08426627997259561</v>
       </c>
     </row>
     <row r="31">
@@ -9815,19 +9815,19 @@
         <v>99187</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>80604</v>
+        <v>80934</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>121036</v>
+        <v>122552</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02856481985834395</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02321299366375142</v>
+        <v>0.02330810546519059</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03485722047816296</v>
+        <v>0.03529360895185807</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>192</v>
@@ -9836,19 +9836,19 @@
         <v>121944</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>103213</v>
+        <v>104529</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>140328</v>
+        <v>142468</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.03308752040084384</v>
+        <v>0.03308752040084385</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02800514840260111</v>
+        <v>0.02836241692996483</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03807575918052052</v>
+        <v>0.03865647542617637</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>296</v>
@@ -9857,19 +9857,19 @@
         <v>221131</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>195896</v>
+        <v>195890</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>250924</v>
+        <v>250670</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0308935064913227</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02736800055064173</v>
+        <v>0.02736719625862052</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03505584383606408</v>
+        <v>0.0350203242065748</v>
       </c>
     </row>
     <row r="32">
@@ -9886,19 +9886,19 @@
         <v>33005</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>22476</v>
+        <v>23009</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>44902</v>
+        <v>46473</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.009505050965884063</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.006472739068369839</v>
+        <v>0.006626375115235083</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01293139840301655</v>
+        <v>0.01338383956415312</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>68</v>
@@ -9907,19 +9907,19 @@
         <v>45174</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>34162</v>
+        <v>35182</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>60282</v>
+        <v>60769</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01225723495405005</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.009269387114734623</v>
+        <v>0.009546139552266198</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01635655652235675</v>
+        <v>0.01648886202914703</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>105</v>
@@ -9928,19 +9928,19 @@
         <v>78179</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>61764</v>
+        <v>62569</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>98141</v>
+        <v>96811</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.01092211893324451</v>
+        <v>0.0109221189332445</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.008628820457229017</v>
+        <v>0.00874131143682292</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01371100779780452</v>
+        <v>0.01352513112679218</v>
       </c>
     </row>
     <row r="33">
